--- a/Solution_recipes/DS_SS_Relax/DS_Relax.xlsx
+++ b/Solution_recipes/DS_SS_Relax/DS_Relax.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\Recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Solution_recipes\DS_SS_Relax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C4101-5C3F-44E1-BE4B-A16D95B3EAE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B070FC3-6C62-4DD7-B49E-43FE9923E7AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1481,6 +1481,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1703,36 +1718,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1755,9 +1744,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Solution_recipes/DS_SS_Relax/DS_Relax.xlsx
+++ b/Solution_recipes/DS_SS_Relax/DS_Relax.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Solution_recipes\DS_SS_Relax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B070FC3-6C62-4DD7-B49E-43FE9923E7AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617AC473-F875-4F7A-B0B8-A90AA2D6A295}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Made by</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>28 mL</t>
+  </si>
+  <si>
+    <t>55208291
+55208292</t>
   </si>
 </sst>
 </file>
@@ -479,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,7 +927,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1087,8 +1094,8 @@
       <c r="B8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="19">
-        <v>55208921</v>
+      <c r="C8" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="D8" s="19">
         <v>605.19000000000005</v>
@@ -1481,21 +1488,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abfa450e2c882fa05ec7f6a4b4016779">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53678093842f3275b6926b32e7a9c141" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1718,10 +1710,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1744,20 +1762,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A161E6A-5B3F-4912-ADEE-71AD0FF6FC00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>